--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -43447,13 +43447,13 @@
         <v>3</v>
       </c>
       <c r="AW197" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX197" t="n">
         <v>9</v>
       </c>
       <c r="AY197" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ197" t="n">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -31134,7 +31134,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>['18', '27', '45', '45+6', '48']</t>
+          <t>['18', '27', '45+6', '45', '48']</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR30" t="n">
         <v>0.91</v>
@@ -10290,7 +10290,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.75</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.75</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR77" t="n">
         <v>1.04</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.17</v>
@@ -23806,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.5</v>
@@ -24245,7 +24245,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24899,7 +24899,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR112" t="n">
         <v>0.83</v>
@@ -25114,7 +25114,7 @@
         <v>3</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ113" t="n">
         <v>2</v>
@@ -29038,7 +29038,7 @@
         <v>1.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.67</v>
@@ -32093,7 +32093,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR145" t="n">
         <v>2.46</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.67</v>
@@ -36235,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR164" t="n">
         <v>1.96</v>
@@ -38633,7 +38633,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR175" t="n">
         <v>1.43</v>
@@ -39941,7 +39941,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR181" t="n">
         <v>1.44</v>
@@ -40592,7 +40592,7 @@
         <v>0.4</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ184" t="n">
         <v>0.83</v>
@@ -43862,7 +43862,7 @@
         <v>3</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ199" t="n">
         <v>3</v>
@@ -44377,6 +44377,224 @@
       </c>
       <c r="BP201" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8291393</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>46042.52083333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Kairat</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>4</v>
+      </c>
+      <c r="N202" t="n">
+        <v>5</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['32', '38', '74', '84']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>6</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X202" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR46" t="n">
         <v>1.22</v>
@@ -13563,7 +13563,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR60" t="n">
         <v>1.52</v>
@@ -16612,7 +16612,7 @@
         <v>2.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.17</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.5</v>
@@ -19231,7 +19231,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR89" t="n">
         <v>0.78</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.5</v>
@@ -21411,7 +21411,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>0</v>
       </c>
       <c r="AP97" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.5</v>
@@ -22062,10 +22062,10 @@
         <v>0</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22283,7 +22283,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.67</v>
@@ -23152,7 +23152,7 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ104" t="n">
         <v>2.17</v>
@@ -23370,10 +23370,10 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR106" t="n">
         <v>1.47</v>
@@ -23809,7 +23809,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR107" t="n">
         <v>2.26</v>
@@ -24242,7 +24242,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.87</v>
@@ -24678,10 +24678,10 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -25550,10 +25550,10 @@
         <v>3</v>
       </c>
       <c r="AP115" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.5</v>
@@ -26425,7 +26425,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -26861,7 +26861,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR121" t="n">
         <v>1.64</v>
@@ -27297,7 +27297,7 @@
         <v>3</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR123" t="n">
         <v>1.48</v>
@@ -27515,7 +27515,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ124" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR124" t="n">
         <v>1.93</v>
@@ -27730,10 +27730,10 @@
         <v>3</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR125" t="n">
         <v>1.44</v>
@@ -27948,7 +27948,7 @@
         <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.5</v>
@@ -28166,10 +28166,10 @@
         <v>3</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR127" t="n">
         <v>0.29</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
         <v>0.83</v>
@@ -28602,7 +28602,7 @@
         <v>0</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.33</v>
@@ -28823,7 +28823,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR130" t="n">
         <v>1.6</v>
@@ -29474,10 +29474,10 @@
         <v>2</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR133" t="n">
         <v>1.48</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ134" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR134" t="n">
         <v>1.31</v>
@@ -29913,7 +29913,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR135" t="n">
         <v>1.1</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="AQ136" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR136" t="n">
         <v>1.87</v>
@@ -30346,10 +30346,10 @@
         <v>3</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR137" t="n">
         <v>1.54</v>
@@ -30785,7 +30785,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR139" t="n">
         <v>1.29</v>
@@ -31221,7 +31221,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR141" t="n">
         <v>1.07</v>
@@ -31436,7 +31436,7 @@
         <v>1</v>
       </c>
       <c r="AP142" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.5</v>
@@ -31654,10 +31654,10 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -32308,7 +32308,7 @@
         <v>1.5</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.5</v>
@@ -32744,7 +32744,7 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.67</v>
@@ -33180,10 +33180,10 @@
         <v>1.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR150" t="n">
         <v>1.05</v>
@@ -33401,7 +33401,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR151" t="n">
         <v>1.62</v>
@@ -33616,7 +33616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.33</v>
@@ -33837,7 +33837,7 @@
         <v>2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR153" t="n">
         <v>2.19</v>
@@ -34052,7 +34052,7 @@
         <v>3</v>
       </c>
       <c r="AP154" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ154" t="n">
         <v>2.5</v>
@@ -34488,10 +34488,10 @@
         <v>0.67</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -34927,7 +34927,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -35145,7 +35145,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -35360,10 +35360,10 @@
         <v>2.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR160" t="n">
         <v>2.2</v>
@@ -36232,7 +36232,7 @@
         <v>1.18</v>
       </c>
       <c r="AP164" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ164" t="n">
         <v>0.87</v>
@@ -36450,7 +36450,7 @@
         <v>2</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.5</v>
@@ -36668,7 +36668,7 @@
         <v>1.25</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.6</v>
@@ -37322,7 +37322,7 @@
         <v>0.75</v>
       </c>
       <c r="AP169" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.5</v>
@@ -37540,10 +37540,10 @@
         <v>0.25</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR170" t="n">
         <v>1.39</v>
@@ -37758,10 +37758,10 @@
         <v>1.25</v>
       </c>
       <c r="AP171" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR171" t="n">
         <v>2.21</v>
@@ -38194,7 +38194,7 @@
         <v>2.2</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.83</v>
@@ -38630,7 +38630,7 @@
         <v>1.08</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.87</v>
@@ -38851,7 +38851,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR176" t="n">
         <v>1.1</v>
@@ -39066,10 +39066,10 @@
         <v>2.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR177" t="n">
         <v>1.4</v>
@@ -39502,10 +39502,10 @@
         <v>2</v>
       </c>
       <c r="AP179" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR179" t="n">
         <v>2.46</v>
@@ -39938,7 +39938,7 @@
         <v>2</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ181" t="n">
         <v>1.73</v>
@@ -40377,7 +40377,7 @@
         <v>2</v>
       </c>
       <c r="AQ183" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR183" t="n">
         <v>1.59</v>
@@ -40595,7 +40595,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ184" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR184" t="n">
         <v>1.32</v>
@@ -40813,7 +40813,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR185" t="n">
         <v>1.99</v>
@@ -41028,7 +41028,7 @@
         <v>1.8</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.5</v>
@@ -41900,7 +41900,7 @@
         <v>1.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ190" t="n">
         <v>2</v>
@@ -42118,7 +42118,7 @@
         <v>0.6</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ191" t="n">
         <v>0.5</v>
@@ -42557,7 +42557,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR193" t="n">
         <v>1.46</v>
@@ -42772,10 +42772,10 @@
         <v>1.64</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR194" t="n">
         <v>1.39</v>
@@ -42990,10 +42990,10 @@
         <v>0.71</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ195" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR195" t="n">
         <v>1.47</v>
@@ -43211,7 +43211,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR196" t="n">
         <v>1.43</v>
@@ -43644,10 +43644,10 @@
         <v>2</v>
       </c>
       <c r="AP198" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ198" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR198" t="n">
         <v>2.32</v>
@@ -44083,7 +44083,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ200" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR200" t="n">
         <v>1.38</v>
@@ -44298,7 +44298,7 @@
         <v>1.8</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.67</v>
@@ -44595,6 +44595,1750 @@
       </c>
       <c r="BP202" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8291279</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>46042.61458333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['22', '24', '58']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U203" t="n">
+        <v>5</v>
+      </c>
+      <c r="V203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8291336</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>7</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>3</v>
+      </c>
+      <c r="N204" t="n">
+        <v>4</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['10', '31', '84']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X204" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8291356</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>7</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X205" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8291343</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>7</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['14', '37']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S206" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X206" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8291359</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['2', '45+1']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X207" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8291399</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>6</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>7</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['5', '26', '51', '55', '63', '80']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U208" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V208" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8291256</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['74', '90']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S209" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X209" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8291400</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46042.70833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>3</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['61', '89']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S210" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.5</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR44" t="n">
         <v>1.62</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR54" t="n">
         <v>1.02</v>
@@ -13781,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR61" t="n">
         <v>1.75</v>
@@ -13999,7 +13999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.67</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.5</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ79" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR80" t="n">
         <v>1.54</v>
@@ -18141,7 +18141,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR81" t="n">
         <v>1.61</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR83" t="n">
         <v>1.27</v>
@@ -19664,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.83</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.17</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20972,10 +20972,10 @@
         <v>0</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ95" t="n">
         <v>3</v>
@@ -21408,7 +21408,7 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.57</v>
@@ -21629,7 +21629,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR98" t="n">
         <v>1.49</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR101" t="n">
         <v>0</v>
@@ -22716,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,10 +22934,10 @@
         <v>0</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23155,7 +23155,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ104" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -24024,10 +24024,10 @@
         <v>0</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24896,7 +24896,7 @@
         <v>3</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.73</v>
@@ -25332,10 +25332,10 @@
         <v>3</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR114" t="n">
         <v>1.23</v>
@@ -25768,10 +25768,10 @@
         <v>2</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR116" t="n">
         <v>1.07</v>
@@ -25986,10 +25986,10 @@
         <v>3</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR117" t="n">
         <v>1.54</v>
@@ -26207,7 +26207,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR118" t="n">
         <v>1.41</v>
@@ -26422,7 +26422,7 @@
         <v>0</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119" t="n">
         <v>0.86</v>
@@ -26640,10 +26640,10 @@
         <v>3</v>
       </c>
       <c r="AP120" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR120" t="n">
         <v>1.3</v>
@@ -26858,7 +26858,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.69</v>
@@ -27076,10 +27076,10 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR122" t="n">
         <v>1.98</v>
@@ -27512,7 +27512,7 @@
         <v>3</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.86</v>
@@ -27951,7 +27951,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR126" t="n">
         <v>0.83</v>
@@ -28387,7 +28387,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR128" t="n">
         <v>1.23</v>
@@ -28605,7 +28605,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR129" t="n">
         <v>1.6</v>
@@ -28820,7 +28820,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.14</v>
@@ -29041,7 +29041,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR131" t="n">
         <v>1.29</v>
@@ -29259,7 +29259,7 @@
         <v>3</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR132" t="n">
         <v>1.6</v>
@@ -29910,7 +29910,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.14</v>
@@ -30128,7 +30128,7 @@
         <v>3</v>
       </c>
       <c r="AP136" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.71</v>
@@ -30564,10 +30564,10 @@
         <v>1.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -30782,7 +30782,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ139" t="n">
         <v>1</v>
@@ -31000,10 +31000,10 @@
         <v>2.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR140" t="n">
         <v>0.99</v>
@@ -31218,7 +31218,7 @@
         <v>0</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.86</v>
@@ -31439,7 +31439,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR142" t="n">
         <v>2.88</v>
@@ -31872,10 +31872,10 @@
         <v>0.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32090,7 +32090,7 @@
         <v>2.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.73</v>
@@ -32311,7 +32311,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR146" t="n">
         <v>1.77</v>
@@ -32526,10 +32526,10 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR147" t="n">
         <v>1.07</v>
@@ -32747,7 +32747,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR148" t="n">
         <v>0.92</v>
@@ -32962,7 +32962,7 @@
         <v>3</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ149" t="n">
         <v>3</v>
@@ -33398,7 +33398,7 @@
         <v>2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.86</v>
@@ -33619,7 +33619,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR152" t="n">
         <v>1.26</v>
@@ -33834,7 +33834,7 @@
         <v>3</v>
       </c>
       <c r="AP153" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ153" t="n">
         <v>2.14</v>
@@ -34055,7 +34055,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR154" t="n">
         <v>2.33</v>
@@ -34270,10 +34270,10 @@
         <v>1</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR155" t="n">
         <v>1.54</v>
@@ -34706,10 +34706,10 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR157" t="n">
         <v>1.55</v>
@@ -34924,7 +34924,7 @@
         <v>0.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.14</v>
@@ -35142,7 +35142,7 @@
         <v>0.67</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.29</v>
@@ -35581,7 +35581,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR161" t="n">
         <v>1.88</v>
@@ -35796,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ162" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR162" t="n">
         <v>1.74</v>
@@ -36014,10 +36014,10 @@
         <v>1.33</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ163" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -36453,7 +36453,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR165" t="n">
         <v>0.8</v>
@@ -36671,7 +36671,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR166" t="n">
         <v>0.8</v>
@@ -36886,10 +36886,10 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR167" t="n">
         <v>1.7</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR168" t="n">
         <v>1.61</v>
@@ -37325,7 +37325,7 @@
         <v>1</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR169" t="n">
         <v>1.66</v>
@@ -37976,10 +37976,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR172" t="n">
         <v>1.48</v>
@@ -38197,7 +38197,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR173" t="n">
         <v>1.15</v>
@@ -38412,10 +38412,10 @@
         <v>2.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR174" t="n">
         <v>1.3</v>
@@ -38848,7 +38848,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.29</v>
@@ -39284,10 +39284,10 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR178" t="n">
         <v>2.16</v>
@@ -39720,10 +39720,10 @@
         <v>1.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ180" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR180" t="n">
         <v>0.88</v>
@@ -40159,7 +40159,7 @@
         <v>3</v>
       </c>
       <c r="AQ182" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR182" t="n">
         <v>1.77</v>
@@ -40374,7 +40374,7 @@
         <v>3</v>
       </c>
       <c r="AP183" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ183" t="n">
         <v>1.71</v>
@@ -40810,7 +40810,7 @@
         <v>2</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.86</v>
@@ -41031,7 +41031,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41246,10 +41246,10 @@
         <v>1.2</v>
       </c>
       <c r="AP187" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR187" t="n">
         <v>1.6</v>
@@ -41464,10 +41464,10 @@
         <v>1.8</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ188" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR188" t="n">
         <v>1.33</v>
@@ -41682,10 +41682,10 @@
         <v>0.8</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR189" t="n">
         <v>1.62</v>
@@ -41903,7 +41903,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ190" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR190" t="n">
         <v>2.06</v>
@@ -42121,7 +42121,7 @@
         <v>2</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR191" t="n">
         <v>1.23</v>
@@ -42336,10 +42336,10 @@
         <v>2</v>
       </c>
       <c r="AP192" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR192" t="n">
         <v>1.59</v>
@@ -42554,7 +42554,7 @@
         <v>0</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ193" t="n">
         <v>0.86</v>
@@ -43208,7 +43208,7 @@
         <v>1.4</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.14</v>
@@ -43426,10 +43426,10 @@
         <v>1.82</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR197" t="n">
         <v>2.01</v>
@@ -44080,7 +44080,7 @@
         <v>2.4</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.86</v>
@@ -44301,7 +44301,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR201" t="n">
         <v>1.07</v>
@@ -46339,6 +46339,1968 @@
       </c>
       <c r="BP210" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8291347</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46043.61458333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>7</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S211" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U211" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X211" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8291292</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46043.61458333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>3</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>5</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['4', '80', '90+4']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['10', '78']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X212" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8291421</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['45+1', '72', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S213" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X213" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8291334</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>3</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['8', '30', '65']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R214" t="n">
+        <v>3</v>
+      </c>
+      <c r="S214" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8291283</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>3</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['16', '88']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['58', '70', '74']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S215" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8291348</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>7</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['52', '55']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S216" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U216" t="n">
+        <v>5</v>
+      </c>
+      <c r="V216" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W216" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8291294</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2</v>
+      </c>
+      <c r="K217" t="n">
+        <v>4</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>4</v>
+      </c>
+      <c r="N217" t="n">
+        <v>6</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['10', '44']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['34', '42', '63', '70']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>6</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U217" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X217" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8291355</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>7</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Paphos</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S218" t="n">
+        <v>12</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V218" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8291297</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>46043.70833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>7</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['55', '64']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S219" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X219" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR30" t="n">
         <v>0.91</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.5</v>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR44" t="n">
         <v>1.62</v>
@@ -10290,7 +10290,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.75</v>
@@ -10511,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR46" t="n">
         <v>1.22</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR54" t="n">
         <v>1.02</v>
@@ -13563,7 +13563,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.52</v>
@@ -13781,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR61" t="n">
         <v>1.75</v>
@@ -13999,7 +13999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.75</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR69" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.67</v>
@@ -16394,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.5</v>
@@ -16612,7 +16612,7 @@
         <v>2.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.17</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR77" t="n">
         <v>1.04</v>
@@ -17702,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79" t="n">
         <v>0</v>
@@ -17923,7 +17923,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR80" t="n">
         <v>1.54</v>
@@ -18141,7 +18141,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR81" t="n">
         <v>1.61</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR83" t="n">
         <v>1.27</v>
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR84" t="n">
         <v>0</v>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AP85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.5</v>
@@ -19231,7 +19231,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR86" t="n">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19664,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.83</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR89" t="n">
         <v>0.78</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.17</v>
@@ -20318,7 +20318,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.5</v>
@@ -20754,7 +20754,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.17</v>
@@ -20972,10 +20972,10 @@
         <v>0</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR94" t="n">
         <v>0</v>
@@ -21190,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ95" t="n">
         <v>3</v>
@@ -21408,10 +21408,10 @@
         <v>0</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR96" t="n">
         <v>0</v>
@@ -21626,10 +21626,10 @@
         <v>0</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR97" t="n">
         <v>0</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR98" t="n">
         <v>1.49</v>
@@ -22062,10 +22062,10 @@
         <v>0</v>
       </c>
       <c r="AP99" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22280,10 +22280,10 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,10 +22498,10 @@
         <v>2.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR101" t="n">
         <v>0</v>
@@ -22716,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="AP102" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22934,10 +22934,10 @@
         <v>0</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23370,10 +23370,10 @@
         <v>0</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR105" t="n">
         <v>0</v>
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR106" t="n">
         <v>1.47</v>
@@ -23806,10 +23806,10 @@
         <v>0</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR107" t="n">
         <v>2.26</v>
@@ -24024,10 +24024,10 @@
         <v>0</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR108" t="n">
         <v>0</v>
@@ -24242,10 +24242,10 @@
         <v>1.5</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR109" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>0</v>
@@ -24678,10 +24678,10 @@
         <v>0</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -24896,10 +24896,10 @@
         <v>3</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR112" t="n">
         <v>0.83</v>
@@ -25114,10 +25114,10 @@
         <v>3</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -25332,10 +25332,10 @@
         <v>3</v>
       </c>
       <c r="AP114" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR114" t="n">
         <v>1.23</v>
@@ -25550,10 +25550,10 @@
         <v>3</v>
       </c>
       <c r="AP115" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -25768,10 +25768,10 @@
         <v>2</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR116" t="n">
         <v>1.07</v>
@@ -25986,10 +25986,10 @@
         <v>3</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR117" t="n">
         <v>1.54</v>
@@ -26204,10 +26204,10 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR118" t="n">
         <v>1.41</v>
@@ -26422,10 +26422,10 @@
         <v>0</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR119" t="n">
         <v>1.52</v>
@@ -26640,10 +26640,10 @@
         <v>3</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ120" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR120" t="n">
         <v>1.3</v>
@@ -26858,10 +26858,10 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR121" t="n">
         <v>1.64</v>
@@ -27076,10 +27076,10 @@
         <v>0</v>
       </c>
       <c r="AP122" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR122" t="n">
         <v>1.98</v>
@@ -27297,7 +27297,7 @@
         <v>3</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR123" t="n">
         <v>1.48</v>
@@ -27512,10 +27512,10 @@
         <v>3</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR124" t="n">
         <v>1.93</v>
@@ -27730,10 +27730,10 @@
         <v>3</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR125" t="n">
         <v>1.44</v>
@@ -27948,10 +27948,10 @@
         <v>1</v>
       </c>
       <c r="AP126" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR126" t="n">
         <v>0.83</v>
@@ -28166,10 +28166,10 @@
         <v>3</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR127" t="n">
         <v>0.29</v>
@@ -28384,10 +28384,10 @@
         <v>0</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR128" t="n">
         <v>1.23</v>
@@ -28602,10 +28602,10 @@
         <v>0</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR129" t="n">
         <v>1.6</v>
@@ -28820,10 +28820,10 @@
         <v>0.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR130" t="n">
         <v>1.6</v>
@@ -29038,10 +29038,10 @@
         <v>1.88</v>
       </c>
       <c r="AP131" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR131" t="n">
         <v>1.29</v>
@@ -29259,7 +29259,7 @@
         <v>3</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR132" t="n">
         <v>1.6</v>
@@ -29474,10 +29474,10 @@
         <v>2</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR133" t="n">
         <v>1.48</v>
@@ -29692,10 +29692,10 @@
         <v>2</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR134" t="n">
         <v>1.31</v>
@@ -29910,10 +29910,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR135" t="n">
         <v>1.1</v>
@@ -30128,10 +30128,10 @@
         <v>3</v>
       </c>
       <c r="AP136" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR136" t="n">
         <v>1.87</v>
@@ -30346,10 +30346,10 @@
         <v>3</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR137" t="n">
         <v>1.54</v>
@@ -30564,10 +30564,10 @@
         <v>1.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR138" t="n">
         <v>1.47</v>
@@ -30782,10 +30782,10 @@
         <v>1.25</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR139" t="n">
         <v>1.29</v>
@@ -31000,10 +31000,10 @@
         <v>2.63</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR140" t="n">
         <v>0.99</v>
@@ -31218,10 +31218,10 @@
         <v>0</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR141" t="n">
         <v>1.07</v>
@@ -31436,10 +31436,10 @@
         <v>1</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR142" t="n">
         <v>2.88</v>
@@ -31654,10 +31654,10 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -31872,10 +31872,10 @@
         <v>0.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ144" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR144" t="n">
         <v>1.38</v>
@@ -32090,10 +32090,10 @@
         <v>2.5</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR145" t="n">
         <v>2.46</v>
@@ -32308,10 +32308,10 @@
         <v>1.5</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR146" t="n">
         <v>1.77</v>
@@ -32526,10 +32526,10 @@
         <v>1.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR147" t="n">
         <v>1.07</v>
@@ -32744,10 +32744,10 @@
         <v>1</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR148" t="n">
         <v>0.92</v>
@@ -32962,7 +32962,7 @@
         <v>3</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ149" t="n">
         <v>3</v>
@@ -33180,10 +33180,10 @@
         <v>1.67</v>
       </c>
       <c r="AP150" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR150" t="n">
         <v>1.05</v>
@@ -33398,10 +33398,10 @@
         <v>2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR151" t="n">
         <v>1.62</v>
@@ -33616,10 +33616,10 @@
         <v>1.33</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR152" t="n">
         <v>1.26</v>
@@ -33834,10 +33834,10 @@
         <v>3</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ153" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR153" t="n">
         <v>2.19</v>
@@ -34052,10 +34052,10 @@
         <v>3</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ154" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR154" t="n">
         <v>2.33</v>
@@ -34270,10 +34270,10 @@
         <v>1</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ155" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR155" t="n">
         <v>1.54</v>
@@ -34488,10 +34488,10 @@
         <v>0.67</v>
       </c>
       <c r="AP156" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR156" t="n">
         <v>1.61</v>
@@ -34706,10 +34706,10 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR157" t="n">
         <v>1.55</v>
@@ -34924,10 +34924,10 @@
         <v>0.33</v>
       </c>
       <c r="AP158" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR158" t="n">
         <v>1.15</v>
@@ -35142,10 +35142,10 @@
         <v>0.67</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR159" t="n">
         <v>1.34</v>
@@ -35360,10 +35360,10 @@
         <v>2.33</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR160" t="n">
         <v>2.2</v>
@@ -35578,10 +35578,10 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR161" t="n">
         <v>1.88</v>
@@ -35796,10 +35796,10 @@
         <v>1</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR162" t="n">
         <v>1.74</v>
@@ -36014,10 +36014,10 @@
         <v>1.33</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR163" t="n">
         <v>1.22</v>
@@ -36232,10 +36232,10 @@
         <v>1.18</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ164" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR164" t="n">
         <v>1.96</v>
@@ -36450,10 +36450,10 @@
         <v>2</v>
       </c>
       <c r="AP165" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR165" t="n">
         <v>0.8</v>
@@ -36668,10 +36668,10 @@
         <v>1.25</v>
       </c>
       <c r="AP166" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR166" t="n">
         <v>0.8</v>
@@ -36886,10 +36886,10 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR167" t="n">
         <v>1.7</v>
@@ -37104,10 +37104,10 @@
         <v>1.75</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR168" t="n">
         <v>1.61</v>
@@ -37322,10 +37322,10 @@
         <v>0.75</v>
       </c>
       <c r="AP169" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR169" t="n">
         <v>1.66</v>
@@ -37540,10 +37540,10 @@
         <v>0.25</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR170" t="n">
         <v>1.39</v>
@@ -37758,10 +37758,10 @@
         <v>1.25</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR171" t="n">
         <v>2.21</v>
@@ -37976,10 +37976,10 @@
         <v>0.75</v>
       </c>
       <c r="AP172" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR172" t="n">
         <v>1.48</v>
@@ -38194,10 +38194,10 @@
         <v>2.2</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AR173" t="n">
         <v>1.15</v>
@@ -38412,10 +38412,10 @@
         <v>2.25</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR174" t="n">
         <v>1.3</v>
@@ -38630,10 +38630,10 @@
         <v>1.08</v>
       </c>
       <c r="AP175" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR175" t="n">
         <v>1.43</v>
@@ -38848,10 +38848,10 @@
         <v>1.25</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR176" t="n">
         <v>1.1</v>
@@ -39066,10 +39066,10 @@
         <v>2.25</v>
       </c>
       <c r="AP177" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR177" t="n">
         <v>1.4</v>
@@ -39284,10 +39284,10 @@
         <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR178" t="n">
         <v>2.16</v>
@@ -39502,10 +39502,10 @@
         <v>2</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ179" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR179" t="n">
         <v>2.46</v>
@@ -39720,10 +39720,10 @@
         <v>1.75</v>
       </c>
       <c r="AP180" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR180" t="n">
         <v>0.88</v>
@@ -39938,10 +39938,10 @@
         <v>2</v>
       </c>
       <c r="AP181" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ181" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR181" t="n">
         <v>1.44</v>
@@ -40159,7 +40159,7 @@
         <v>3</v>
       </c>
       <c r="AQ182" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR182" t="n">
         <v>1.77</v>
@@ -40374,10 +40374,10 @@
         <v>3</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR183" t="n">
         <v>1.59</v>
@@ -40592,10 +40592,10 @@
         <v>0.4</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR184" t="n">
         <v>1.32</v>
@@ -40810,10 +40810,10 @@
         <v>2</v>
       </c>
       <c r="AP185" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR185" t="n">
         <v>1.99</v>
@@ -41028,10 +41028,10 @@
         <v>1.8</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR186" t="n">
         <v>1.51</v>
@@ -41246,10 +41246,10 @@
         <v>1.2</v>
       </c>
       <c r="AP187" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR187" t="n">
         <v>1.6</v>
@@ -41464,10 +41464,10 @@
         <v>1.8</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR188" t="n">
         <v>1.33</v>
@@ -41682,10 +41682,10 @@
         <v>0.8</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR189" t="n">
         <v>1.62</v>
@@ -41900,10 +41900,10 @@
         <v>1.8</v>
       </c>
       <c r="AP190" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ190" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR190" t="n">
         <v>2.06</v>
@@ -42118,10 +42118,10 @@
         <v>0.6</v>
       </c>
       <c r="AP191" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ191" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR191" t="n">
         <v>1.23</v>
@@ -42336,10 +42336,10 @@
         <v>2</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR192" t="n">
         <v>1.59</v>
@@ -42554,10 +42554,10 @@
         <v>0</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ193" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR193" t="n">
         <v>1.46</v>
@@ -42772,10 +42772,10 @@
         <v>1.64</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR194" t="n">
         <v>1.39</v>
@@ -42990,10 +42990,10 @@
         <v>0.71</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR195" t="n">
         <v>1.47</v>
@@ -43208,10 +43208,10 @@
         <v>1.4</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.43</v>
@@ -43426,10 +43426,10 @@
         <v>1.82</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR197" t="n">
         <v>2.01</v>
@@ -43644,10 +43644,10 @@
         <v>2</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR198" t="n">
         <v>2.32</v>
@@ -43862,7 +43862,7 @@
         <v>3</v>
       </c>
       <c r="AP199" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ199" t="n">
         <v>3</v>
@@ -44080,10 +44080,10 @@
         <v>2.4</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR200" t="n">
         <v>1.38</v>
@@ -44298,10 +44298,10 @@
         <v>1.8</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR201" t="n">
         <v>1.07</v>
@@ -44516,10 +44516,10 @@
         <v>1.6</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR202" t="n">
         <v>1.26</v>
@@ -44734,10 +44734,10 @@
         <v>2.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR203" t="n">
         <v>1.59</v>
@@ -44952,7 +44952,7 @@
         <v>3</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ204" t="n">
         <v>3</v>
@@ -45170,10 +45170,10 @@
         <v>1.17</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR205" t="n">
         <v>1.46</v>
@@ -45388,10 +45388,10 @@
         <v>1.83</v>
       </c>
       <c r="AP206" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR206" t="n">
         <v>1.37</v>
@@ -45606,10 +45606,10 @@
         <v>1.5</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR207" t="n">
         <v>1.66</v>
@@ -45824,10 +45824,10 @@
         <v>1.5</v>
       </c>
       <c r="AP208" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR208" t="n">
         <v>2.16</v>
@@ -46042,10 +46042,10 @@
         <v>2.17</v>
       </c>
       <c r="AP209" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR209" t="n">
         <v>1.37</v>
@@ -46260,10 +46260,10 @@
         <v>0.5</v>
       </c>
       <c r="AP210" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR210" t="n">
         <v>1.49</v>
@@ -46478,10 +46478,10 @@
         <v>2</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR211" t="n">
         <v>1.62</v>
@@ -46696,10 +46696,10 @@
         <v>0.67</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR212" t="n">
         <v>1.5</v>
@@ -46914,10 +46914,10 @@
         <v>2</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ213" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR213" t="n">
         <v>1.44</v>
@@ -47132,10 +47132,10 @@
         <v>1.33</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.66</v>
@@ -47350,10 +47350,10 @@
         <v>0.83</v>
       </c>
       <c r="AP215" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR215" t="n">
         <v>1.57</v>
@@ -47568,10 +47568,10 @@
         <v>1</v>
       </c>
       <c r="AP216" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR216" t="n">
         <v>2.12</v>
@@ -47786,10 +47786,10 @@
         <v>1.67</v>
       </c>
       <c r="AP217" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR217" t="n">
         <v>1.4</v>
@@ -48004,10 +48004,10 @@
         <v>1.67</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR218" t="n">
         <v>1.58</v>
@@ -48222,10 +48222,10 @@
         <v>1.6</v>
       </c>
       <c r="AP219" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR219" t="n">
         <v>2.07</v>
@@ -48301,6 +48301,3930 @@
       </c>
       <c r="BP219" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8291266</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['52', '79']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U220" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X220" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8291376</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U221" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="V221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>8291274</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>8</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>3</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>3</v>
+      </c>
+      <c r="N222" t="n">
+        <v>5</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['33', '43']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['19', '61', '82']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>4</v>
+      </c>
+      <c r="R222" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U222" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X222" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8291260</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>8</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2</v>
+      </c>
+      <c r="N223" t="n">
+        <v>3</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['34', '59']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R223" t="n">
+        <v>3</v>
+      </c>
+      <c r="S223" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U223" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8291353</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['10', '29']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S224" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U224" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V224" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X224" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8291458</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>8</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>2</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['80', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="R225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U225" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V225" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X225" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8291389</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V226" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8291300</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>8</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X227" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8291395</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>6</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>6</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['15', '21', '50', '57', '61', '90']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S228" t="n">
+        <v>12</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U228" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>38</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>18</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8291303</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['12', '35', '57']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S229" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X229" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8291316</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['58', '84']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S230" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="V230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8291397</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>8</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Olympique Marseille</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>3</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['4', '11', '79']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8291398</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>4</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>5</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['48', '60', '69', '85']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S232" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U232" t="n">
+        <v>6</v>
+      </c>
+      <c r="V232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8291335</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>8</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Kairat</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>3</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="n">
+        <v>4</v>
+      </c>
+      <c r="L233" t="n">
+        <v>3</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>5</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['2', '15', '36']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['7', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R233" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S233" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U233" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8291401</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>8</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['47', '77']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>4</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S234" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X234" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8291345</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>8</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>3</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>3</v>
+      </c>
+      <c r="N235" t="n">
+        <v>5</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['3', '28']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['12', '62', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X235" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8291462</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>8</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>3</v>
+      </c>
+      <c r="L236" t="n">
+        <v>4</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2</v>
+      </c>
+      <c r="N236" t="n">
+        <v>6</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['36', '45+5', '54', '90+8']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['30', '58']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S236" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8291290</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>46050.70833333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>8</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Paphos</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>4</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['17', '53', '84', '87']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S237" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X237" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP237"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22062,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.38</v>
@@ -24681,7 +24681,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>3</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ117" t="n">
         <v>2.25</v>
@@ -28387,7 +28387,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR128" t="n">
         <v>0.83</v>
@@ -31000,7 +31000,7 @@
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.2</v>
@@ -31657,7 +31657,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR143" t="n">
         <v>2.88</v>
@@ -33398,7 +33398,7 @@
         <v>2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ151" t="n">
         <v>2</v>
@@ -36235,7 +36235,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR164" t="n">
         <v>0.8</v>
@@ -36886,7 +36886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.13</v>
@@ -38415,7 +38415,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR174" t="n">
         <v>1.66</v>
@@ -41685,7 +41685,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR189" t="n">
         <v>1.51</v>
@@ -44298,7 +44298,7 @@
         <v>1.82</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.64</v>
@@ -46696,7 +46696,7 @@
         <v>2</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.63</v>
@@ -47786,7 +47786,7 @@
         <v>1.6</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.58</v>
@@ -51059,7 +51059,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR232" t="n">
         <v>1.65</v>
@@ -51277,7 +51277,7 @@
         <v>2</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR233" t="n">
         <v>2.14</v>
@@ -52225,6 +52225,224 @@
       </c>
       <c r="BP237" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8452865</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>46070.61458333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
+      <c r="K238" t="n">
+        <v>3</v>
+      </c>
+      <c r="L238" t="n">
+        <v>5</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>7</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['15', '49', '60', '74', '86']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['16', '32']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S238" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="V238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X238" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ78" t="n">
         <v>0</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR86" t="n">
         <v>1.27</v>
@@ -20754,7 +20754,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ93" t="n">
         <v>1</v>
@@ -21626,7 +21626,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.79</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.13</v>
@@ -22065,7 +22065,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR106" t="n">
         <v>2.26</v>
@@ -24896,7 +24896,7 @@
         <v>3</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.83</v>
@@ -25117,7 +25117,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -25553,7 +25553,7 @@
         <v>2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR115" t="n">
         <v>1.07</v>
@@ -27297,7 +27297,7 @@
         <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR123" t="n">
         <v>1.93</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>3</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127" t="n">
         <v>2</v>
@@ -29259,7 +29259,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR132" t="n">
         <v>1.47</v>
@@ -29695,7 +29695,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR134" t="n">
         <v>1.48</v>
@@ -29913,7 +29913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR135" t="n">
         <v>1.54</v>
@@ -31654,7 +31654,7 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.44</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.13</v>
@@ -32526,7 +32526,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.38</v>
@@ -34052,7 +34052,7 @@
         <v>3</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ154" t="n">
         <v>2.63</v>
@@ -34273,7 +34273,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -34491,7 +34491,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR156" t="n">
         <v>2.19</v>
@@ -35363,7 +35363,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR160" t="n">
         <v>1.22</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR162" t="n">
         <v>2.2</v>
@@ -36014,7 +36014,7 @@
         <v>0.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ163" t="n">
         <v>1.5</v>
@@ -36671,7 +36671,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR166" t="n">
         <v>0.8</v>
@@ -37540,7 +37540,7 @@
         <v>0.25</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.13</v>
@@ -38633,7 +38633,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR175" t="n">
         <v>1.1</v>
@@ -39723,7 +39723,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR180" t="n">
         <v>1.4</v>
@@ -40156,7 +40156,7 @@
         <v>2</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ182" t="n">
         <v>2.13</v>
@@ -40377,7 +40377,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR183" t="n">
         <v>0.88</v>
@@ -41682,7 +41682,7 @@
         <v>1.8</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ189" t="n">
         <v>1.44</v>
@@ -42336,7 +42336,7 @@
         <v>2</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ192" t="n">
         <v>2</v>
@@ -42990,7 +42990,7 @@
         <v>1.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ195" t="n">
         <v>1</v>
@@ -43208,7 +43208,7 @@
         <v>2</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ196" t="n">
         <v>2</v>
@@ -43426,7 +43426,7 @@
         <v>0.71</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.2</v>
@@ -43865,7 +43865,7 @@
         <v>1</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR199" t="n">
         <v>1.38</v>
@@ -45388,10 +45388,10 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR206" t="n">
         <v>2.16</v>
@@ -46045,7 +46045,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR209" t="n">
         <v>1.37</v>
@@ -46263,7 +46263,7 @@
         <v>2</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR210" t="n">
         <v>1.37</v>
@@ -47132,7 +47132,7 @@
         <v>0.83</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -47789,7 +47789,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AR217" t="n">
         <v>2.07</v>
@@ -48440,7 +48440,7 @@
         <v>1.86</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ220" t="n">
         <v>1.75</v>
@@ -50402,7 +50402,7 @@
         <v>1.71</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
         <v>1.88</v>
@@ -51056,7 +51056,7 @@
         <v>1.71</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ232" t="n">
         <v>1.44</v>
@@ -51492,10 +51492,10 @@
         <v>2.14</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR234" t="n">
         <v>1.44</v>
@@ -51931,7 +51931,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR236" t="n">
         <v>1.4</v>
@@ -52443,6 +52443,660 @@
       </c>
       <c r="BP238" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8452867</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S239" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X239" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8452874</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>46070.70833333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2</v>
+      </c>
+      <c r="K240" t="n">
+        <v>4</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>3</v>
+      </c>
+      <c r="N240" t="n">
+        <v>5</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['1', '18']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['29', '41', '67']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>5</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S240" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X240" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8452866</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>46070.71875</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>2</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['3', '42']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S241" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U241" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X241" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR44" t="n">
         <v>1.62</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.67</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.5</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR89" t="n">
         <v>0.78</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.17</v>
@@ -20318,7 +20318,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.17</v>
@@ -21629,7 +21629,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR97" t="n">
         <v>1.49</v>
@@ -22283,7 +22283,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.64</v>
@@ -22719,7 +22719,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -22937,7 +22937,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.11</v>
@@ -23809,7 +23809,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR107" t="n">
         <v>1.47</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ110" t="n">
         <v>2</v>
@@ -24899,7 +24899,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR112" t="n">
         <v>0.83</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.38</v>
@@ -26422,7 +26422,7 @@
         <v>3</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.13</v>
@@ -26640,7 +26640,7 @@
         <v>3</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.5</v>
@@ -26858,7 +26858,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.57</v>
@@ -27079,7 +27079,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR122" t="n">
         <v>1.98</v>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -28605,7 +28605,7 @@
         <v>3</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR129" t="n">
         <v>1.48</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR130" t="n">
         <v>1.6</v>
@@ -29256,7 +29256,7 @@
         <v>1.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.46</v>
@@ -29477,7 +29477,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR133" t="n">
         <v>1.87</v>
@@ -29910,7 +29910,7 @@
         <v>3</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.89</v>
@@ -30131,7 +30131,7 @@
         <v>3</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR136" t="n">
         <v>1.6</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR139" t="n">
         <v>0.99</v>
@@ -31003,7 +31003,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR140" t="n">
         <v>1.29</v>
@@ -32311,7 +32311,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR146" t="n">
         <v>2.46</v>
@@ -33180,7 +33180,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.13</v>
@@ -34270,7 +34270,7 @@
         <v>0.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.11</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ157" t="n">
         <v>2</v>
@@ -35142,7 +35142,7 @@
         <v>1.18</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.8100000000000001</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ161" t="n">
         <v>2</v>
@@ -36017,7 +36017,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR163" t="n">
         <v>1.34</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -37325,7 +37325,7 @@
         <v>2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR169" t="n">
         <v>2.21</v>
@@ -37761,7 +37761,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -38197,7 +38197,7 @@
         <v>1</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR173" t="n">
         <v>1.15</v>
@@ -38412,7 +38412,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.44</v>
@@ -39284,10 +39284,10 @@
         <v>3</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR178" t="n">
         <v>1.59</v>
@@ -39505,7 +39505,7 @@
         <v>2</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR179" t="n">
         <v>1.44</v>
@@ -39720,7 +39720,7 @@
         <v>2.25</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ180" t="n">
         <v>2</v>
@@ -40595,7 +40595,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR184" t="n">
         <v>1.32</v>
@@ -41249,7 +41249,7 @@
         <v>1</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR187" t="n">
         <v>1.33</v>
@@ -41464,7 +41464,7 @@
         <v>1.8</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ188" t="n">
         <v>2.25</v>
@@ -42772,7 +42772,7 @@
         <v>0</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ194" t="n">
         <v>0.75</v>
@@ -43429,7 +43429,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR197" t="n">
         <v>1.47</v>
@@ -43644,7 +43644,7 @@
         <v>3</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ198" t="n">
         <v>3</v>
@@ -44080,10 +44080,10 @@
         <v>1.8</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR200" t="n">
         <v>1.07</v>
@@ -44519,7 +44519,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AR202" t="n">
         <v>1.26</v>
@@ -44734,7 +44734,7 @@
         <v>2.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ203" t="n">
         <v>2</v>
@@ -44952,7 +44952,7 @@
         <v>3</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ204" t="n">
         <v>3</v>
@@ -45170,10 +45170,10 @@
         <v>1.5</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR205" t="n">
         <v>1.66</v>
@@ -46478,7 +46478,7 @@
         <v>0.67</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.5</v>
@@ -46699,7 +46699,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR212" t="n">
         <v>1.62</v>
@@ -48004,7 +48004,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ218" t="n">
         <v>1</v>
@@ -48443,7 +48443,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR220" t="n">
         <v>2.32</v>
@@ -48876,10 +48876,10 @@
         <v>1</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR222" t="n">
         <v>1.67</v>
@@ -49533,7 +49533,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AR225" t="n">
         <v>2.05</v>
@@ -49966,7 +49966,7 @@
         <v>1.29</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.13</v>
@@ -50187,7 +50187,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR228" t="n">
         <v>1.13</v>
@@ -50405,7 +50405,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR229" t="n">
         <v>1.53</v>
@@ -50838,7 +50838,7 @@
         <v>0.14</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.13</v>
@@ -53097,6 +53097,878 @@
       </c>
       <c r="BP241" t="n">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8452871</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>46071.61458333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>5</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>6</v>
+      </c>
+      <c r="N242" t="n">
+        <v>7</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['3', '8', '32', '33', '45+1', '72']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S242" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U242" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X242" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8452873</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>3</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>4</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['20', '61', '64']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U243" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8452872</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['60', '63']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S244" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X244" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8452868</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>46071.70833333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+      <c r="M245" t="n">
+        <v>3</v>
+      </c>
+      <c r="N245" t="n">
+        <v>6</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['51', '60', '89']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['8', '45+4', '79']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S245" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U245" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="V245" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X245" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR65" t="n">
         <v>1.8</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR82" t="n">
         <v>1.3</v>
@@ -20318,7 +20318,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.17</v>
@@ -22719,7 +22719,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR102" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106" t="n">
         <v>1.11</v>
@@ -24899,7 +24899,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR112" t="n">
         <v>0.83</v>
@@ -26640,7 +26640,7 @@
         <v>3</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ120" t="n">
         <v>0.5</v>
@@ -30131,7 +30131,7 @@
         <v>3</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR136" t="n">
         <v>1.6</v>
@@ -32311,7 +32311,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR146" t="n">
         <v>2.46</v>
@@ -33616,7 +33616,7 @@
         <v>1</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.13</v>
@@ -35578,7 +35578,7 @@
         <v>2</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ161" t="n">
         <v>2</v>
@@ -39284,7 +39284,7 @@
         <v>3</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.67</v>
@@ -39505,7 +39505,7 @@
         <v>2</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR179" t="n">
         <v>1.44</v>
@@ -41249,7 +41249,7 @@
         <v>1</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR187" t="n">
         <v>1.33</v>
@@ -43644,7 +43644,7 @@
         <v>3</v>
       </c>
       <c r="AP198" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ198" t="n">
         <v>3</v>
@@ -44519,7 +44519,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AR202" t="n">
         <v>1.26</v>
@@ -46699,7 +46699,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ212" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR212" t="n">
         <v>1.62</v>
@@ -48876,7 +48876,7 @@
         <v>1</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ222" t="n">
         <v>1.36</v>
@@ -49966,7 +49966,7 @@
         <v>1.29</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.13</v>
@@ -53890,10 +53890,10 @@
         <v>1.63</v>
       </c>
       <c r="AP245" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ245" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR245" t="n">
         <v>1.69</v>
@@ -53969,6 +53969,224 @@
       </c>
       <c r="BP245" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8452877</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>46077.61458333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>4</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>5</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['23', '48', '76', '87']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S246" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X246" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Europe UEFA Champions League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP246"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10075,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR44" t="n">
         <v>1.62</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR62" t="n">
         <v>1.51</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR68" t="n">
         <v>0</v>
@@ -15740,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.67</v>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78" t="n">
         <v>0</v>
@@ -18141,7 +18141,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR81" t="n">
         <v>1.54</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.5</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR86" t="n">
         <v>1.27</v>
@@ -19885,7 +19885,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR89" t="n">
         <v>0.78</v>
@@ -20100,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ90" t="n">
         <v>2.17</v>
@@ -20754,7 +20754,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ93" t="n">
         <v>1</v>
@@ -21626,10 +21626,10 @@
         <v>2.5</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR97" t="n">
         <v>1.49</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.13</v>
@@ -22062,10 +22062,10 @@
         <v>0</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR99" t="n">
         <v>0</v>
@@ -22283,7 +22283,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.64</v>
@@ -22937,7 +22937,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR103" t="n">
         <v>0</v>
@@ -23152,10 +23152,10 @@
         <v>0</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR104" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR106" t="n">
         <v>2.26</v>
@@ -23809,7 +23809,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR107" t="n">
         <v>1.47</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>2</v>
@@ -24681,7 +24681,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR111" t="n">
         <v>0</v>
@@ -24896,7 +24896,7 @@
         <v>3</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.64</v>
@@ -25117,7 +25117,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR113" t="n">
         <v>1.31</v>
@@ -25553,7 +25553,7 @@
         <v>2</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR115" t="n">
         <v>1.07</v>
@@ -25986,7 +25986,7 @@
         <v>3</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ117" t="n">
         <v>2.25</v>
@@ -26204,7 +26204,7 @@
         <v>1</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.38</v>
@@ -26422,7 +26422,7 @@
         <v>3</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.13</v>
@@ -26858,7 +26858,7 @@
         <v>2.14</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121" t="n">
         <v>1.57</v>
@@ -27079,7 +27079,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.98</v>
@@ -27297,7 +27297,7 @@
         <v>2</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR123" t="n">
         <v>1.93</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124" t="n">
         <v>1</v>
@@ -27730,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -28166,7 +28166,7 @@
         <v>3</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ127" t="n">
         <v>2</v>
@@ -28387,7 +28387,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR128" t="n">
         <v>0.83</v>
@@ -28605,7 +28605,7 @@
         <v>3</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR129" t="n">
         <v>1.48</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR130" t="n">
         <v>1.6</v>
@@ -29256,10 +29256,10 @@
         <v>1.67</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR132" t="n">
         <v>1.47</v>
@@ -29477,7 +29477,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR133" t="n">
         <v>1.87</v>
@@ -29695,7 +29695,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR134" t="n">
         <v>1.48</v>
@@ -29910,10 +29910,10 @@
         <v>3</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR135" t="n">
         <v>1.54</v>
@@ -30785,7 +30785,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR139" t="n">
         <v>0.99</v>
@@ -31000,10 +31000,10 @@
         <v>1.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR140" t="n">
         <v>1.29</v>
@@ -31654,10 +31654,10 @@
         <v>1</v>
       </c>
       <c r="AP143" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR143" t="n">
         <v>2.88</v>
@@ -31872,7 +31872,7 @@
         <v>2</v>
       </c>
       <c r="AP144" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ144" t="n">
         <v>2.13</v>
@@ -32526,7 +32526,7 @@
         <v>0.5</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.38</v>
@@ -33180,7 +33180,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ150" t="n">
         <v>1</v>
@@ -33398,7 +33398,7 @@
         <v>2</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ151" t="n">
         <v>2</v>
@@ -34052,7 +34052,7 @@
         <v>3</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ154" t="n">
         <v>2.63</v>
@@ -34270,10 +34270,10 @@
         <v>0.67</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR155" t="n">
         <v>1.61</v>
@@ -34491,7 +34491,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ156" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR156" t="n">
         <v>2.19</v>
@@ -34706,7 +34706,7 @@
         <v>2</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ157" t="n">
         <v>2</v>
@@ -35142,7 +35142,7 @@
         <v>1.18</v>
       </c>
       <c r="AP159" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.8100000000000001</v>
@@ -35363,7 +35363,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR160" t="n">
         <v>1.22</v>
@@ -35799,7 +35799,7 @@
         <v>2</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR162" t="n">
         <v>2.2</v>
@@ -36014,10 +36014,10 @@
         <v>0.67</v>
       </c>
       <c r="AP163" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ163" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR163" t="n">
         <v>1.34</v>
@@ -36235,7 +36235,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR164" t="n">
         <v>0.8</v>
@@ -36450,7 +36450,7 @@
         <v>1</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ165" t="n">
         <v>1</v>
@@ -36671,7 +36671,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR166" t="n">
         <v>0.8</v>
@@ -36886,7 +36886,7 @@
         <v>0.75</v>
       </c>
       <c r="AP167" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ167" t="n">
         <v>1.13</v>
@@ -37325,7 +37325,7 @@
         <v>2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR169" t="n">
         <v>2.21</v>
@@ -37540,7 +37540,7 @@
         <v>0.25</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.13</v>
@@ -37761,7 +37761,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR171" t="n">
         <v>1.3</v>
@@ -38197,7 +38197,7 @@
         <v>1</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR173" t="n">
         <v>1.15</v>
@@ -38412,10 +38412,10 @@
         <v>0.75</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR174" t="n">
         <v>1.66</v>
@@ -38633,7 +38633,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR175" t="n">
         <v>1.1</v>
@@ -39287,7 +39287,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR178" t="n">
         <v>1.59</v>
@@ -39720,10 +39720,10 @@
         <v>2.25</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ180" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR180" t="n">
         <v>1.4</v>
@@ -40156,7 +40156,7 @@
         <v>2</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ182" t="n">
         <v>2.13</v>
@@ -40377,7 +40377,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ183" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR183" t="n">
         <v>0.88</v>
@@ -40595,7 +40595,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ184" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR184" t="n">
         <v>1.32</v>
@@ -41464,7 +41464,7 @@
         <v>1.8</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188" t="n">
         <v>2.25</v>
@@ -41682,10 +41682,10 @@
         <v>1.8</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR189" t="n">
         <v>1.51</v>
@@ -42336,7 +42336,7 @@
         <v>2</v>
       </c>
       <c r="AP192" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ192" t="n">
         <v>2</v>
@@ -42772,7 +42772,7 @@
         <v>0</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ194" t="n">
         <v>0.75</v>
@@ -42990,7 +42990,7 @@
         <v>1.4</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ195" t="n">
         <v>1</v>
@@ -43208,7 +43208,7 @@
         <v>2</v>
       </c>
       <c r="AP196" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ196" t="n">
         <v>2</v>
@@ -43426,10 +43426,10 @@
         <v>0.71</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR197" t="n">
         <v>1.47</v>
@@ -43865,7 +43865,7 @@
         <v>1</v>
       </c>
       <c r="AQ199" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR199" t="n">
         <v>1.38</v>
@@ -44080,10 +44080,10 @@
         <v>1.8</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR200" t="n">
         <v>1.07</v>
@@ -44298,7 +44298,7 @@
         <v>1.82</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ201" t="n">
         <v>1.64</v>
@@ -44734,7 +44734,7 @@
         <v>2.17</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203" t="n">
         <v>2</v>
@@ -44952,7 +44952,7 @@
         <v>3</v>
       </c>
       <c r="AP204" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ204" t="n">
         <v>3</v>
@@ -45170,10 +45170,10 @@
         <v>1.5</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR205" t="n">
         <v>1.66</v>
@@ -45388,10 +45388,10 @@
         <v>1.5</v>
       </c>
       <c r="AP206" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR206" t="n">
         <v>2.16</v>
@@ -46045,7 +46045,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ209" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR209" t="n">
         <v>1.37</v>
@@ -46263,7 +46263,7 @@
         <v>2</v>
       </c>
       <c r="AQ210" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR210" t="n">
         <v>1.37</v>
@@ -46478,7 +46478,7 @@
         <v>0.67</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ211" t="n">
         <v>0.5</v>
@@ -46696,7 +46696,7 @@
         <v>2</v>
       </c>
       <c r="AP212" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ212" t="n">
         <v>1.7</v>
@@ -47132,7 +47132,7 @@
         <v>0.83</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -47786,10 +47786,10 @@
         <v>1.6</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR217" t="n">
         <v>2.07</v>
@@ -48004,7 +48004,7 @@
         <v>1.33</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ218" t="n">
         <v>1</v>
@@ -48440,10 +48440,10 @@
         <v>1.86</v>
       </c>
       <c r="AP220" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ220" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR220" t="n">
         <v>2.32</v>
@@ -48879,7 +48879,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ222" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR222" t="n">
         <v>1.67</v>
@@ -49533,7 +49533,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ225" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR225" t="n">
         <v>2.05</v>
@@ -50187,7 +50187,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ228" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR228" t="n">
         <v>1.13</v>
@@ -50402,10 +50402,10 @@
         <v>1.71</v>
       </c>
       <c r="AP229" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR229" t="n">
         <v>1.53</v>
@@ -50838,7 +50838,7 @@
         <v>0.14</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ231" t="n">
         <v>0.13</v>
@@ -51056,10 +51056,10 @@
         <v>1.71</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR232" t="n">
         <v>1.65</v>
@@ -51277,7 +51277,7 @@
         <v>2</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR233" t="n">
         <v>2.14</v>
@@ -51492,10 +51492,10 @@
         <v>2.14</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ234" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR234" t="n">
         <v>1.44</v>
@@ -51931,7 +51931,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR236" t="n">
         <v>1.4</v>
@@ -52364,10 +52364,10 @@
         <v>1.63</v>
       </c>
       <c r="AP238" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR238" t="n">
         <v>1.43</v>
@@ -52582,10 +52582,10 @@
         <v>1.88</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ239" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AR239" t="n">
         <v>1.54</v>
@@ -52800,10 +52800,10 @@
         <v>1.75</v>
       </c>
       <c r="AP240" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ240" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR240" t="n">
         <v>1.61</v>
@@ -53018,10 +53018,10 @@
         <v>1.63</v>
       </c>
       <c r="AP241" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ241" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR241" t="n">
         <v>1.47</v>
@@ -53236,10 +53236,10 @@
         <v>1.75</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ242" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR242" t="n">
         <v>1.45</v>
@@ -53454,10 +53454,10 @@
         <v>1.88</v>
       </c>
       <c r="AP243" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ243" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR243" t="n">
         <v>1.52</v>
@@ -53672,10 +53672,10 @@
         <v>1.5</v>
       </c>
       <c r="AP244" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ244" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR244" t="n">
         <v>1.5</v>
@@ -54187,6 +54187,1532 @@
       </c>
       <c r="BP246" t="n">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8452863</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>46077.70833333334</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>FK Bodo - Glimt</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>2</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['58', '72']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R247" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S247" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U247" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="V247" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8452875</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>46077.70833333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Qarabağ</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2</v>
+      </c>
+      <c r="L248" t="n">
+        <v>3</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['4', '6', '52']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['50', '57']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U248" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8452870</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>46077.70833333334</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Olympiakos Piraeus</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S249" t="n">
+        <v>4</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X249" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8452876</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>46078.61458333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>2</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>4</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>5</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['5', '45', '57', '90+8']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V250" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X250" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8452869</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>46078.70833333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['60', '66']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['45', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S251" t="n">
+        <v>6</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U251" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X251" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8452864</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>46078.70833333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" t="n">
+        <v>2</v>
+      </c>
+      <c r="N252" t="n">
+        <v>5</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['37', '70', '82']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['105+1', '119']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S252" t="n">
+        <v>5</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X252" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8452862</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>46078.70833333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>2</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['16', '80']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S253" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
